--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\DA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA089A1-3C81-4776-BE62-1E71F8724BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D562FA0-B1F9-4D41-873A-149E13425E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Income</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +466,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +477,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -490,14 +496,17 @@
       <c r="C2" s="8">
         <v>25628</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
+        <v>92436</v>
+      </c>
+      <c r="E2" s="8">
         <v>200137</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="9">
         <v>42330</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -507,14 +516,17 @@
       <c r="C3" s="8">
         <v>26205</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
+        <v>91473</v>
+      </c>
+      <c r="E3" s="8">
         <v>199004</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>40860</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2021</v>
       </c>
@@ -524,14 +536,17 @@
       <c r="C4" s="8">
         <v>25909</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
+        <v>90512</v>
+      </c>
+      <c r="E4" s="8">
         <v>197805</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>38410</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -541,14 +556,17 @@
       <c r="C5" s="8">
         <v>25348</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
+        <v>89159</v>
+      </c>
+      <c r="E5" s="8">
         <v>195355</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>38760</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2019</v>
       </c>
@@ -558,14 +576,17 @@
       <c r="C6" s="8">
         <v>25459</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
+        <v>86831</v>
+      </c>
+      <c r="E6" s="8">
         <v>194203</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>35700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
@@ -575,14 +596,17 @@
       <c r="C7" s="8">
         <v>25893</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
+        <v>85363</v>
+      </c>
+      <c r="E7" s="8">
         <v>193527</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>34640</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2017</v>
       </c>
@@ -592,14 +616,17 @@
       <c r="C8" s="8">
         <v>25482</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
+        <v>84562</v>
+      </c>
+      <c r="E8" s="8">
         <v>190980</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>34060</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2016</v>
       </c>
@@ -609,14 +636,17 @@
       <c r="C9" s="8">
         <v>25539</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
+        <v>82912</v>
+      </c>
+      <c r="E9" s="8">
         <v>190166</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>32790</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2015</v>
       </c>
@@ -626,14 +656,17 @@
       <c r="C10" s="8">
         <v>25826</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
+        <v>83074</v>
+      </c>
+      <c r="E10" s="8">
         <v>187800</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>31300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2014</v>
       </c>
@@ -643,14 +676,17 @@
       <c r="C11" s="8">
         <v>25343</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
+        <v>81026</v>
+      </c>
+      <c r="E11" s="8">
         <v>185492</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>29860</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2013</v>
       </c>
@@ -660,14 +696,17 @@
       <c r="C12" s="8">
         <v>25388</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
+        <v>80022</v>
+      </c>
+      <c r="E12" s="8">
         <v>183605</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>29750</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2012</v>
       </c>
@@ -677,14 +716,17 @@
       <c r="C13" s="8">
         <v>24911</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
+        <v>78499</v>
+      </c>
+      <c r="E13" s="8">
         <v>181523</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <v>28510</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2011</v>
       </c>
@@ -694,14 +736,17 @@
       <c r="C14" s="8">
         <v>24502</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
+        <v>77273</v>
+      </c>
+      <c r="E14" s="8">
         <v>179504</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>28070</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2011</v>
       </c>
@@ -711,14 +756,17 @@
       <c r="C15" s="8">
         <v>24432</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
+        <v>75584</v>
+      </c>
+      <c r="E15" s="8">
         <v>178859</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>27330</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2010</v>
       </c>
@@ -728,14 +776,17 @@
       <c r="C16" s="8">
         <v>23741</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
+        <v>75810</v>
+      </c>
+      <c r="E16" s="8">
         <v>176851</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>26380</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2009</v>
       </c>
@@ -745,14 +796,17 @@
       <c r="C17" s="8">
         <v>23266</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
+        <v>74243</v>
+      </c>
+      <c r="E17" s="8">
         <v>174428</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>26270</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2008</v>
       </c>
@@ -762,14 +816,17 @@
       <c r="C18" s="8">
         <v>23346</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
+        <v>72065</v>
+      </c>
+      <c r="E18" s="8">
         <v>173355</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <v>26610</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2007</v>
       </c>
@@ -779,14 +836,17 @@
       <c r="C19" s="8">
         <v>22851</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
+        <v>71479</v>
+      </c>
+      <c r="E19" s="8">
         <v>170647</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>26410</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2006</v>
       </c>
@@ -796,14 +856,17 @@
       <c r="C20" s="8">
         <v>22806</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
+        <v>69234</v>
+      </c>
+      <c r="E20" s="8">
         <v>168919</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>26040</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2005</v>
       </c>
@@ -813,14 +876,17 @@
       <c r="C21" s="8">
         <v>22261</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
+        <v>68515</v>
+      </c>
+      <c r="E21" s="8">
         <v>166370</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <v>24670</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2004</v>
       </c>
@@ -830,14 +896,17 @@
       <c r="C22" s="8">
         <v>21809</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
+        <v>67031</v>
+      </c>
+      <c r="E22" s="8">
         <v>163998</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <v>23550</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2003</v>
       </c>
@@ -847,14 +916,17 @@
       <c r="C23" s="8">
         <v>21649</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
+        <v>65860</v>
+      </c>
+      <c r="E23" s="8">
         <v>162165</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>22970</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2002</v>
       </c>
@@ -864,14 +936,17 @@
       <c r="C24" s="8">
         <v>20954</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
+        <v>64380</v>
+      </c>
+      <c r="E24" s="8">
         <v>159356</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <v>22530</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2001</v>
       </c>
@@ -881,14 +956,17 @@
       <c r="C25" s="8">
         <v>20738</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
+        <v>63090</v>
+      </c>
+      <c r="E25" s="8">
         <v>157146</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="9">
         <v>22570</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2000</v>
       </c>
@@ -898,29 +976,32 @@
       <c r="C26" s="8">
         <v>19881</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
+        <v>61133</v>
+      </c>
+      <c r="E26" s="8">
         <v>153247</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="9">
         <v>22130</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\DA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D562FA0-B1F9-4D41-873A-149E13425E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AEA6B-2F83-4C03-8976-40EC789ACCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20625" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -54,6 +55,9 @@
   </si>
   <si>
     <t>Single</t>
+  </si>
+  <si>
+    <t>Mean age</t>
   </si>
 </sst>
 </file>
@@ -145,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -172,6 +176,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -452,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +471,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +490,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -500,13 +508,16 @@
         <v>92436</v>
       </c>
       <c r="E2" s="8">
-        <v>200137</v>
+        <v>268583</v>
       </c>
       <c r="F2" s="9">
         <v>42330</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -520,488 +531,520 @@
         <v>91473</v>
       </c>
       <c r="E3" s="8">
-        <v>199004</v>
+        <v>267174</v>
       </c>
       <c r="F3" s="9">
         <v>40860</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2021</v>
+      <c r="G3">
+        <v>29.450000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2020</v>
       </c>
       <c r="B4" s="8">
-        <v>135875</v>
+        <v>137772</v>
       </c>
       <c r="C4" s="8">
-        <v>25909</v>
+        <v>25348</v>
       </c>
       <c r="D4">
-        <v>90512</v>
+        <v>89159</v>
       </c>
       <c r="E4" s="8">
-        <v>197805</v>
+        <v>264696</v>
       </c>
       <c r="F4" s="9">
-        <v>38410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2020</v>
+        <v>38760</v>
+      </c>
+      <c r="G4">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2019</v>
       </c>
       <c r="B5" s="8">
-        <v>137772</v>
+        <v>137758</v>
       </c>
       <c r="C5" s="8">
-        <v>25348</v>
+        <v>25459</v>
       </c>
       <c r="D5">
-        <v>89159</v>
+        <v>86831</v>
       </c>
       <c r="E5" s="8">
-        <v>195355</v>
+        <v>263457</v>
       </c>
       <c r="F5" s="9">
-        <v>38760</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35700</v>
+      </c>
+      <c r="G5">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="8">
-        <v>137758</v>
+        <v>136506</v>
       </c>
       <c r="C6" s="8">
-        <v>25459</v>
+        <v>25893</v>
       </c>
       <c r="D6">
-        <v>86831</v>
+        <v>85363</v>
       </c>
       <c r="E6" s="8">
-        <v>194203</v>
+        <v>262058</v>
       </c>
       <c r="F6" s="9">
-        <v>35700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34640</v>
+      </c>
+      <c r="G6">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="8">
-        <v>136506</v>
+        <v>135749</v>
       </c>
       <c r="C7" s="8">
-        <v>25893</v>
+        <v>25482</v>
       </c>
       <c r="D7">
-        <v>85363</v>
+        <v>84562</v>
       </c>
       <c r="E7" s="8">
-        <v>193527</v>
+        <v>259063</v>
       </c>
       <c r="F7" s="9">
-        <v>34640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34060</v>
+      </c>
+      <c r="G7">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="8">
-        <v>135749</v>
+        <v>134145</v>
       </c>
       <c r="C8" s="8">
-        <v>25482</v>
+        <v>25539</v>
       </c>
       <c r="D8">
-        <v>84562</v>
+        <v>82912</v>
       </c>
       <c r="E8" s="8">
-        <v>190980</v>
+        <v>257615</v>
       </c>
       <c r="F8" s="9">
-        <v>34060</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2016</v>
+        <v>32790</v>
+      </c>
+      <c r="G8">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2015</v>
       </c>
       <c r="B9" s="8">
-        <v>134145</v>
+        <v>133564</v>
       </c>
       <c r="C9" s="8">
-        <v>25539</v>
+        <v>25826</v>
       </c>
       <c r="D9">
-        <v>82912</v>
+        <v>83074</v>
       </c>
       <c r="E9" s="8">
-        <v>190166</v>
+        <v>255016</v>
       </c>
       <c r="F9" s="9">
-        <v>32790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2015</v>
+        <v>31300</v>
+      </c>
+      <c r="G9">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2014</v>
       </c>
       <c r="B10" s="8">
-        <v>133564</v>
+        <v>132585</v>
       </c>
       <c r="C10" s="8">
-        <v>25826</v>
+        <v>25343</v>
       </c>
       <c r="D10">
-        <v>83074</v>
+        <v>81026</v>
       </c>
       <c r="E10" s="8">
-        <v>187800</v>
+        <v>252224</v>
       </c>
       <c r="F10" s="9">
-        <v>31300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2014</v>
+        <v>29860</v>
+      </c>
+      <c r="G10">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2013</v>
       </c>
       <c r="B11" s="8">
-        <v>132585</v>
+        <v>131656</v>
       </c>
       <c r="C11" s="8">
-        <v>25343</v>
+        <v>25388</v>
       </c>
       <c r="D11">
-        <v>81026</v>
+        <v>80022</v>
       </c>
       <c r="E11" s="8">
-        <v>185492</v>
+        <v>249893</v>
       </c>
       <c r="F11" s="9">
-        <v>29860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29750</v>
+      </c>
+      <c r="G11">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="8">
-        <v>131656</v>
+        <v>131330</v>
       </c>
       <c r="C12" s="8">
-        <v>25388</v>
+        <v>24911</v>
       </c>
       <c r="D12">
-        <v>80022</v>
+        <v>78499</v>
       </c>
       <c r="E12" s="8">
-        <v>183605</v>
+        <v>247572</v>
       </c>
       <c r="F12" s="9">
-        <v>29750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28510</v>
+      </c>
+      <c r="G12">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="8">
-        <v>131330</v>
+        <v>130767</v>
       </c>
       <c r="C13" s="8">
-        <v>24911</v>
+        <v>24502</v>
       </c>
       <c r="D13">
-        <v>78499</v>
+        <v>77273</v>
       </c>
       <c r="E13" s="8">
-        <v>181523</v>
+        <v>245275</v>
       </c>
       <c r="F13" s="9">
-        <v>28510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>2011</v>
+        <v>28070</v>
+      </c>
+      <c r="G13">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2010</v>
       </c>
       <c r="B14" s="8">
-        <v>130767</v>
+        <v>129722</v>
       </c>
       <c r="C14" s="8">
-        <v>24502</v>
+        <v>23741</v>
       </c>
       <c r="D14">
-        <v>77273</v>
+        <v>75810</v>
       </c>
       <c r="E14" s="8">
-        <v>179504</v>
+        <v>242047</v>
       </c>
       <c r="F14" s="9">
-        <v>28070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26380</v>
+      </c>
+      <c r="G14">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B15" s="8">
-        <v>129381</v>
+        <v>130446</v>
       </c>
       <c r="C15" s="8">
-        <v>24432</v>
+        <v>23266</v>
       </c>
       <c r="D15">
-        <v>75584</v>
+        <v>74243</v>
       </c>
       <c r="E15" s="8">
-        <v>178859</v>
+        <v>240032</v>
       </c>
       <c r="F15" s="9">
-        <v>27330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2010</v>
+        <v>26270</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2008</v>
       </c>
       <c r="B16" s="8">
-        <v>129722</v>
+        <v>128855</v>
       </c>
       <c r="C16" s="8">
-        <v>23741</v>
+        <v>23346</v>
       </c>
       <c r="D16">
-        <v>75810</v>
+        <v>72065</v>
       </c>
       <c r="E16" s="8">
-        <v>176851</v>
+        <v>237993</v>
       </c>
       <c r="F16" s="9">
-        <v>26380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26610</v>
+      </c>
+      <c r="G16">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="8">
-        <v>130446</v>
+        <v>129858</v>
       </c>
       <c r="C17" s="8">
-        <v>23266</v>
+        <v>22851</v>
       </c>
       <c r="D17">
-        <v>74243</v>
+        <v>71479</v>
       </c>
       <c r="E17" s="8">
-        <v>174428</v>
+        <v>235848</v>
       </c>
       <c r="F17" s="9">
-        <v>26270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26410</v>
+      </c>
+      <c r="G17">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="8">
-        <v>128855</v>
+        <v>127804</v>
       </c>
       <c r="C18" s="8">
-        <v>23346</v>
+        <v>22806</v>
       </c>
       <c r="D18">
-        <v>72065</v>
+        <v>69234</v>
       </c>
       <c r="E18" s="8">
-        <v>173355</v>
+        <v>233039</v>
       </c>
       <c r="F18" s="9">
-        <v>26610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2007</v>
+        <v>26040</v>
+      </c>
+      <c r="G18">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2005</v>
       </c>
       <c r="B19" s="8">
-        <v>129858</v>
+        <v>127142</v>
       </c>
       <c r="C19" s="8">
-        <v>22851</v>
+        <v>22261</v>
       </c>
       <c r="D19">
-        <v>71479</v>
+        <v>68515</v>
       </c>
       <c r="E19" s="8">
-        <v>170647</v>
+        <v>230272</v>
       </c>
       <c r="F19" s="9">
-        <v>26410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24670</v>
+      </c>
+      <c r="G19">
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="8">
-        <v>127804</v>
+        <v>125880</v>
       </c>
       <c r="C20" s="8">
-        <v>22806</v>
+        <v>21809</v>
       </c>
       <c r="D20">
-        <v>69234</v>
+        <v>67031</v>
       </c>
       <c r="E20" s="8">
-        <v>168919</v>
+        <v>227343</v>
       </c>
       <c r="F20" s="9">
-        <v>26040</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2005</v>
+        <v>23550</v>
+      </c>
+      <c r="G20">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2003</v>
       </c>
       <c r="B21" s="8">
-        <v>127142</v>
+        <v>125034</v>
       </c>
       <c r="C21" s="8">
-        <v>22261</v>
+        <v>21649</v>
       </c>
       <c r="D21">
-        <v>68515</v>
+        <v>65860</v>
       </c>
       <c r="E21" s="8">
-        <v>166370</v>
+        <v>225057</v>
       </c>
       <c r="F21" s="9">
-        <v>24670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22970</v>
+      </c>
+      <c r="G21">
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="8">
-        <v>125880</v>
+        <v>123370</v>
       </c>
       <c r="C22" s="8">
-        <v>21809</v>
+        <v>20954</v>
       </c>
       <c r="D22">
-        <v>67031</v>
+        <v>64380</v>
       </c>
       <c r="E22" s="8">
-        <v>163998</v>
+        <v>221458</v>
       </c>
       <c r="F22" s="9">
-        <v>23550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22530</v>
+      </c>
+      <c r="G22">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B23" s="8">
-        <v>125034</v>
+        <v>123098</v>
       </c>
       <c r="C23" s="8">
-        <v>21649</v>
+        <v>20738</v>
       </c>
       <c r="D23">
-        <v>65860</v>
+        <v>63090</v>
       </c>
       <c r="E23" s="8">
-        <v>162165</v>
+        <v>219035</v>
       </c>
       <c r="F23" s="9">
-        <v>22970</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>2002</v>
+        <v>22570</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2000</v>
       </c>
       <c r="B24" s="8">
-        <v>123370</v>
+        <v>120211</v>
       </c>
       <c r="C24" s="8">
-        <v>20954</v>
+        <v>19881</v>
       </c>
       <c r="D24">
-        <v>64380</v>
-      </c>
-      <c r="E24" s="8">
-        <v>159356</v>
+        <v>61133</v>
+      </c>
+      <c r="E24">
+        <v>213774</v>
       </c>
       <c r="F24" s="9">
-        <v>22530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B25" s="8">
-        <v>123098</v>
-      </c>
-      <c r="C25" s="8">
-        <v>20738</v>
-      </c>
-      <c r="D25">
-        <v>63090</v>
-      </c>
-      <c r="E25" s="8">
-        <v>157146</v>
-      </c>
-      <c r="F25" s="9">
-        <v>22570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B26" s="8">
-        <v>120211</v>
-      </c>
-      <c r="C26" s="8">
-        <v>19881</v>
-      </c>
-      <c r="D26">
-        <v>61133</v>
-      </c>
-      <c r="E26" s="8">
-        <v>153247</v>
-      </c>
-      <c r="F26" s="9">
         <v>22130</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>25.950000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1040,11 +1083,667 @@
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85305D3E-DC3B-4466-8BCB-7A0D495A9E0A}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Sheet1!B2/Sheet1!E2</f>
+        <v>0.5074669655190388</v>
+      </c>
+      <c r="C2" s="10">
+        <f>Sheet1!C2/Sheet1!E2</f>
+        <v>9.5419293104924738E-2</v>
+      </c>
+      <c r="D2" s="10">
+        <f>Sheet1!D2/Sheet1!E2</f>
+        <v>0.34416176749831523</v>
+      </c>
+      <c r="E2" s="8">
+        <f>Sheet1!E2</f>
+        <v>268583</v>
+      </c>
+      <c r="F2" s="9">
+        <v>42330</v>
+      </c>
+      <c r="G2">
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="10" t="e">
+        <f>Sheet1!#REF!/Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="10" t="e">
+        <f>Sheet1!#REF!/Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="10" t="e">
+        <f>Sheet1!#REF!/Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="8">
+        <f>Sheet1!E3</f>
+        <v>267174</v>
+      </c>
+      <c r="F3" s="9">
+        <v>38410</v>
+      </c>
+      <c r="G3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="10">
+        <f>Sheet1!B4/Sheet1!E4</f>
+        <v>0.52049143168011602</v>
+      </c>
+      <c r="C4" s="10">
+        <f>Sheet1!C4/Sheet1!E4</f>
+        <v>9.5762686251397833E-2</v>
+      </c>
+      <c r="D4" s="10">
+        <f>Sheet1!D4/Sheet1!E4</f>
+        <v>0.33683546407954784</v>
+      </c>
+      <c r="E4" s="8" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="9">
+        <v>38760</v>
+      </c>
+      <c r="G4">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="10">
+        <f>Sheet1!B5/Sheet1!E5</f>
+        <v>0.52288608767275113</v>
+      </c>
+      <c r="C5" s="10">
+        <f>Sheet1!C5/Sheet1!E5</f>
+        <v>9.6634365380308743E-2</v>
+      </c>
+      <c r="D5" s="10">
+        <f>Sheet1!D5/Sheet1!E5</f>
+        <v>0.32958319573972222</v>
+      </c>
+      <c r="E5" s="8">
+        <f>Sheet1!E4</f>
+        <v>264696</v>
+      </c>
+      <c r="F5" s="9">
+        <v>35700</v>
+      </c>
+      <c r="G5">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Sheet1!B6/Sheet1!E6</f>
+        <v>0.5208999534454205</v>
+      </c>
+      <c r="C6" s="10">
+        <f>Sheet1!C6/Sheet1!E6</f>
+        <v>9.880637110868587E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <f>Sheet1!D6/Sheet1!E6</f>
+        <v>0.32574086652573092</v>
+      </c>
+      <c r="E6" s="8">
+        <f>Sheet1!E5</f>
+        <v>263457</v>
+      </c>
+      <c r="F6" s="9">
+        <v>34640</v>
+      </c>
+      <c r="G6">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10">
+        <f>Sheet1!B7/Sheet1!E7</f>
+        <v>0.52399995367922092</v>
+      </c>
+      <c r="C7" s="10">
+        <f>Sheet1!C7/Sheet1!E7</f>
+        <v>9.8362174451774281E-2</v>
+      </c>
+      <c r="D7" s="10">
+        <f>Sheet1!D7/Sheet1!E7</f>
+        <v>0.32641481029710917</v>
+      </c>
+      <c r="E7" s="8">
+        <f>Sheet1!E6</f>
+        <v>262058</v>
+      </c>
+      <c r="F7" s="9">
+        <v>34060</v>
+      </c>
+      <c r="G7">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="10">
+        <f>Sheet1!B8/Sheet1!E8</f>
+        <v>0.52071890223783557</v>
+      </c>
+      <c r="C8" s="10">
+        <f>Sheet1!C8/Sheet1!E8</f>
+        <v>9.9136308056596081E-2</v>
+      </c>
+      <c r="D8" s="10">
+        <f>Sheet1!D8/Sheet1!E8</f>
+        <v>0.32184461308541817</v>
+      </c>
+      <c r="E8" s="8">
+        <f>Sheet1!E7</f>
+        <v>259063</v>
+      </c>
+      <c r="F8" s="9">
+        <v>32790</v>
+      </c>
+      <c r="G8">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="10">
+        <f>Sheet1!B9/Sheet1!E9</f>
+        <v>0.52374752956677229</v>
+      </c>
+      <c r="C9" s="10">
+        <f>Sheet1!C9/Sheet1!E9</f>
+        <v>0.10127207704614613</v>
+      </c>
+      <c r="D9" s="10">
+        <f>Sheet1!D9/Sheet1!E9</f>
+        <v>0.32575995231671739</v>
+      </c>
+      <c r="E9" s="8">
+        <f>Sheet1!E8</f>
+        <v>257615</v>
+      </c>
+      <c r="F9" s="9">
+        <v>31300</v>
+      </c>
+      <c r="G9">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="10">
+        <f>Sheet1!B10/Sheet1!E10</f>
+        <v>0.52566369576249683</v>
+      </c>
+      <c r="C10" s="10">
+        <f>Sheet1!C10/Sheet1!E10</f>
+        <v>0.10047814640954073</v>
+      </c>
+      <c r="D10" s="10">
+        <f>Sheet1!D10/Sheet1!E10</f>
+        <v>0.32124619385942654</v>
+      </c>
+      <c r="E10" s="8">
+        <f>Sheet1!E9</f>
+        <v>255016</v>
+      </c>
+      <c r="F10" s="9">
+        <v>29860</v>
+      </c>
+      <c r="G10">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="10">
+        <f>Sheet1!B11/Sheet1!E11</f>
+        <v>0.52684949158239724</v>
+      </c>
+      <c r="C11" s="10">
+        <f>Sheet1!C11/Sheet1!E11</f>
+        <v>0.10159548286666693</v>
+      </c>
+      <c r="D11" s="10">
+        <f>Sheet1!D11/Sheet1!E11</f>
+        <v>0.32022505632410669</v>
+      </c>
+      <c r="E11" s="8">
+        <f>Sheet1!E10</f>
+        <v>252224</v>
+      </c>
+      <c r="F11" s="9">
+        <v>29750</v>
+      </c>
+      <c r="G11">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="10">
+        <f>Sheet1!B12/Sheet1!E12</f>
+        <v>0.53047194351542182</v>
+      </c>
+      <c r="C12" s="10">
+        <f>Sheet1!C12/Sheet1!E12</f>
+        <v>0.10062123341896499</v>
+      </c>
+      <c r="D12" s="10">
+        <f>Sheet1!D12/Sheet1!E12</f>
+        <v>0.31707543664065402</v>
+      </c>
+      <c r="E12" s="8">
+        <f>Sheet1!E11</f>
+        <v>249893</v>
+      </c>
+      <c r="F12" s="9">
+        <v>28510</v>
+      </c>
+      <c r="G12">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10">
+        <f>Sheet1!B13/Sheet1!E13</f>
+        <v>0.53314442972174092</v>
+      </c>
+      <c r="C13" s="10">
+        <f>Sheet1!C13/Sheet1!E13</f>
+        <v>9.989603506268474E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <f>Sheet1!D13/Sheet1!E13</f>
+        <v>0.31504637651615536</v>
+      </c>
+      <c r="E13" s="8">
+        <f>Sheet1!E12</f>
+        <v>247572</v>
+      </c>
+      <c r="F13" s="9">
+        <v>28070</v>
+      </c>
+      <c r="G13">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="10">
+        <f>Sheet1!B14/Sheet1!E14</f>
+        <v>0.53593723533032844</v>
+      </c>
+      <c r="C14" s="10">
+        <f>Sheet1!C14/Sheet1!E14</f>
+        <v>9.8084256363433542E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <f>Sheet1!D14/Sheet1!E14</f>
+        <v>0.31320363400496598</v>
+      </c>
+      <c r="E14" s="8">
+        <f>Sheet1!E13</f>
+        <v>245275</v>
+      </c>
+      <c r="F14" s="9">
+        <v>26380</v>
+      </c>
+      <c r="G14">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="10">
+        <f>Sheet1!B15/Sheet1!E15</f>
+        <v>0.54345253966137852</v>
+      </c>
+      <c r="C15" s="10">
+        <f>Sheet1!C15/Sheet1!E15</f>
+        <v>9.6928742834288761E-2</v>
+      </c>
+      <c r="D15" s="10">
+        <f>Sheet1!D15/Sheet1!E15</f>
+        <v>0.30930459272097055</v>
+      </c>
+      <c r="E15" s="8" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="9">
+        <v>26270</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="10">
+        <f>Sheet1!B16/Sheet1!E16</f>
+        <v>0.54142348724542322</v>
+      </c>
+      <c r="C16" s="10">
+        <f>Sheet1!C16/Sheet1!E16</f>
+        <v>9.8095322131323187E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f>Sheet1!D16/Sheet1!E16</f>
+        <v>0.30280302361834172</v>
+      </c>
+      <c r="E16" s="8">
+        <f>Sheet1!E14</f>
+        <v>242047</v>
+      </c>
+      <c r="F16" s="9">
+        <v>26610</v>
+      </c>
+      <c r="G16">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B17" s="10">
+        <f>Sheet1!B17/Sheet1!E17</f>
+        <v>0.55060038668973232</v>
+      </c>
+      <c r="C17" s="10">
+        <f>Sheet1!C17/Sheet1!E17</f>
+        <v>9.6888674061259797E-2</v>
+      </c>
+      <c r="D17" s="10">
+        <f>Sheet1!D17/Sheet1!E17</f>
+        <v>0.30307231776398358</v>
+      </c>
+      <c r="E17" s="8">
+        <f>Sheet1!E15</f>
+        <v>240032</v>
+      </c>
+      <c r="F17" s="9">
+        <v>26410</v>
+      </c>
+      <c r="G17">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="10">
+        <f>Sheet1!B18/Sheet1!E18</f>
+        <v>0.54842322529705323</v>
+      </c>
+      <c r="C18" s="10">
+        <f>Sheet1!C18/Sheet1!E18</f>
+        <v>9.7863447749089214E-2</v>
+      </c>
+      <c r="D18" s="10">
+        <f>Sheet1!D18/Sheet1!E18</f>
+        <v>0.29709190307201799</v>
+      </c>
+      <c r="E18" s="8">
+        <f>Sheet1!E16</f>
+        <v>237993</v>
+      </c>
+      <c r="F18" s="9">
+        <v>26040</v>
+      </c>
+      <c r="G18">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B19" s="10">
+        <f>Sheet1!B19/Sheet1!E19</f>
+        <v>0.55213834074485824</v>
+      </c>
+      <c r="C19" s="10">
+        <f>Sheet1!C19/Sheet1!E19</f>
+        <v>9.6672630628126741E-2</v>
+      </c>
+      <c r="D19" s="10">
+        <f>Sheet1!D19/Sheet1!E19</f>
+        <v>0.29753943162868263</v>
+      </c>
+      <c r="E19" s="8">
+        <f>Sheet1!E17</f>
+        <v>235848</v>
+      </c>
+      <c r="F19" s="9">
+        <v>24670</v>
+      </c>
+      <c r="G19">
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="10">
+        <f>Sheet1!B20/Sheet1!E20</f>
+        <v>0.55370079571396524</v>
+      </c>
+      <c r="C20" s="10">
+        <f>Sheet1!C20/Sheet1!E20</f>
+        <v>9.5929938463027234E-2</v>
+      </c>
+      <c r="D20" s="10">
+        <f>Sheet1!D20/Sheet1!E20</f>
+        <v>0.29484523385369243</v>
+      </c>
+      <c r="E20" s="8">
+        <f>Sheet1!E18</f>
+        <v>233039</v>
+      </c>
+      <c r="F20" s="9">
+        <v>23550</v>
+      </c>
+      <c r="G20">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B21" s="10">
+        <f>Sheet1!B21/Sheet1!E21</f>
+        <v>0.55556592329943078</v>
+      </c>
+      <c r="C21" s="10">
+        <f>Sheet1!C21/Sheet1!E21</f>
+        <v>9.6193408780886613E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <f>Sheet1!D21/Sheet1!E21</f>
+        <v>0.29263697641042047</v>
+      </c>
+      <c r="E21" s="8">
+        <f>Sheet1!E19</f>
+        <v>230272</v>
+      </c>
+      <c r="F21" s="9">
+        <v>22970</v>
+      </c>
+      <c r="G21">
+        <v>26.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="10">
+        <f>Sheet1!B22/Sheet1!E22</f>
+        <v>0.55708080087420642</v>
+      </c>
+      <c r="C22" s="10">
+        <f>Sheet1!C22/Sheet1!E22</f>
+        <v>9.4618392652331365E-2</v>
+      </c>
+      <c r="D22" s="10">
+        <f>Sheet1!D22/Sheet1!E22</f>
+        <v>0.29070975083311507</v>
+      </c>
+      <c r="E22" s="8">
+        <f>Sheet1!E20</f>
+        <v>227343</v>
+      </c>
+      <c r="F22" s="9">
+        <v>22530</v>
+      </c>
+      <c r="G22">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="10">
+        <f>Sheet1!B23/Sheet1!E23</f>
+        <v>0.56200150660853287</v>
+      </c>
+      <c r="C23" s="10">
+        <f>Sheet1!C23/Sheet1!E23</f>
+        <v>9.4678932590681858E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <f>Sheet1!D23/Sheet1!E23</f>
+        <v>0.28803615860478921</v>
+      </c>
+      <c r="E23" s="8">
+        <f>Sheet1!E21</f>
+        <v>225057</v>
+      </c>
+      <c r="F23" s="9">
+        <v>22570</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="10">
+        <f>Sheet1!B24/Sheet1!E24</f>
+        <v>0.56232750474800486</v>
+      </c>
+      <c r="C24" s="10">
+        <f>Sheet1!C24/Sheet1!E24</f>
+        <v>9.3000084201072156E-2</v>
+      </c>
+      <c r="D24" s="10">
+        <f>Sheet1!D24/Sheet1!E24</f>
+        <v>0.28597023024315399</v>
+      </c>
+      <c r="E24" s="8">
+        <f>Sheet1!E22</f>
+        <v>221458</v>
+      </c>
+      <c r="F24" s="9">
+        <v>22130</v>
+      </c>
+      <c r="G24">
+        <v>25.950000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Desktop\Data analysis\Project\DA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AEA6B-2F83-4C03-8976-40EC789ACCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECE049A-5486-499C-93F8-2FD5CB209BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20625" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13725" yWindow="0" windowWidth="15180" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -59,12 +59,15 @@
   <si>
     <t>Mean age</t>
   </si>
+  <si>
+    <t>Household</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +89,25 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -146,10 +168,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -177,8 +200,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6BE0F61D-E4D7-4D66-9D27-E316075CA873}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,9 +509,10 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +534,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -516,8 +560,11 @@
       <c r="G2">
         <v>29.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="18">
+        <v>131202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -539,8 +586,11 @@
       <c r="G3">
         <v>29.450000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="18">
+        <v>129224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2020</v>
       </c>
@@ -562,8 +612,11 @@
       <c r="G4">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="17">
+        <v>128451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2019</v>
       </c>
@@ -585,8 +638,11 @@
       <c r="G5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="16">
+        <v>128579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -608,8 +664,11 @@
       <c r="G6">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16">
+        <v>127586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2017</v>
       </c>
@@ -631,8 +690,11 @@
       <c r="G7">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="16">
+        <v>126224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2016</v>
       </c>
@@ -654,8 +716,11 @@
       <c r="G8">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="16">
+        <v>125819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -677,8 +742,11 @@
       <c r="G9">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="15">
+        <v>124587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
@@ -700,8 +768,11 @@
       <c r="G10">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="14">
+        <v>123229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -723,8 +794,11 @@
       <c r="G11">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="12">
+        <v>122459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
@@ -746,8 +820,11 @@
       <c r="G12">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="12">
+        <v>121084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2011</v>
       </c>
@@ -769,8 +846,11 @@
       <c r="G13">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="12">
+        <v>119927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2010</v>
       </c>
@@ -792,8 +872,11 @@
       <c r="G14">
         <v>27.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="13">
+        <v>117538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2009</v>
       </c>
@@ -815,8 +898,11 @@
       <c r="G15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="12">
+        <v>117181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2008</v>
       </c>
@@ -838,8 +924,11 @@
       <c r="G16">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="12">
+        <v>116783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2007</v>
       </c>
@@ -861,8 +950,11 @@
       <c r="G17">
         <v>26.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="12">
+        <v>116011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -884,8 +976,11 @@
       <c r="G18">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="12">
+        <v>114384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2005</v>
       </c>
@@ -907,8 +1002,11 @@
       <c r="G19">
         <v>26.200000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="13">
+        <v>113343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2004</v>
       </c>
@@ -930,8 +1028,11 @@
       <c r="G20">
         <v>26.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="12">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2003</v>
       </c>
@@ -953,8 +1054,11 @@
       <c r="G21">
         <v>26.200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="12">
+        <v>111278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2002</v>
       </c>
@@ -976,8 +1080,11 @@
       <c r="G22">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="12">
+        <v>109297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2001</v>
       </c>
@@ -999,8 +1106,11 @@
       <c r="G23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="12">
+        <v>108209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2000</v>
       </c>
@@ -1022,29 +1132,32 @@
       <c r="G24">
         <v>25.950000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="13">
+        <v>104705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1090,18 +1203,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85305D3E-DC3B-4466-8BCB-7A0D495A9E0A}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1237,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -1150,22 +1267,25 @@
       <c r="G2">
         <v>29.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="18">
+        <v>131202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2021</v>
       </c>
-      <c r="B3" s="10" t="e">
-        <f>Sheet1!#REF!/Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C3" s="10" t="e">
-        <f>Sheet1!#REF!/Sheet1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="10" t="e">
-        <f>Sheet1!#REF!/Sheet1!#REF!</f>
-        <v>#REF!</v>
+      <c r="B3" s="10">
+        <f>Sheet1!B3/Sheet1!E3</f>
+        <v>0.50792367520791692</v>
+      </c>
+      <c r="C3" s="10">
+        <f>Sheet1!C3/Sheet1!E3</f>
+        <v>9.8082148712075282E-2</v>
+      </c>
+      <c r="D3" s="10">
+        <f>Sheet1!D3/Sheet1!E3</f>
+        <v>0.34237238653461788</v>
       </c>
       <c r="E3" s="8">
         <f>Sheet1!E3</f>
@@ -1177,8 +1297,11 @@
       <c r="G3">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="18">
+        <v>129224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2020</v>
       </c>
@@ -1194,9 +1317,9 @@
         <f>Sheet1!D4/Sheet1!E4</f>
         <v>0.33683546407954784</v>
       </c>
-      <c r="E4" s="8" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
+      <c r="E4" s="8">
+        <f>Sheet1!E4</f>
+        <v>264696</v>
       </c>
       <c r="F4" s="9">
         <v>38760</v>
@@ -1204,8 +1327,11 @@
       <c r="G4">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="17">
+        <v>128451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2019</v>
       </c>
@@ -1222,8 +1348,8 @@
         <v>0.32958319573972222</v>
       </c>
       <c r="E5" s="8">
-        <f>Sheet1!E4</f>
-        <v>264696</v>
+        <f>Sheet1!E5</f>
+        <v>263457</v>
       </c>
       <c r="F5" s="9">
         <v>35700</v>
@@ -1231,8 +1357,11 @@
       <c r="G5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="16">
+        <v>128579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2018</v>
       </c>
@@ -1249,8 +1378,8 @@
         <v>0.32574086652573092</v>
       </c>
       <c r="E6" s="8">
-        <f>Sheet1!E5</f>
-        <v>263457</v>
+        <f>Sheet1!E6</f>
+        <v>262058</v>
       </c>
       <c r="F6" s="9">
         <v>34640</v>
@@ -1258,8 +1387,11 @@
       <c r="G6">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="16">
+        <v>127586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2017</v>
       </c>
@@ -1276,8 +1408,8 @@
         <v>0.32641481029710917</v>
       </c>
       <c r="E7" s="8">
-        <f>Sheet1!E6</f>
-        <v>262058</v>
+        <f>Sheet1!E7</f>
+        <v>259063</v>
       </c>
       <c r="F7" s="9">
         <v>34060</v>
@@ -1285,8 +1417,11 @@
       <c r="G7">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="16">
+        <v>126224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2016</v>
       </c>
@@ -1303,8 +1438,8 @@
         <v>0.32184461308541817</v>
       </c>
       <c r="E8" s="8">
-        <f>Sheet1!E7</f>
-        <v>259063</v>
+        <f>Sheet1!E8</f>
+        <v>257615</v>
       </c>
       <c r="F8" s="9">
         <v>32790</v>
@@ -1312,8 +1447,11 @@
       <c r="G8">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="16">
+        <v>125819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -1330,8 +1468,8 @@
         <v>0.32575995231671739</v>
       </c>
       <c r="E9" s="8">
-        <f>Sheet1!E8</f>
-        <v>257615</v>
+        <f>Sheet1!E9</f>
+        <v>255016</v>
       </c>
       <c r="F9" s="9">
         <v>31300</v>
@@ -1339,8 +1477,11 @@
       <c r="G9">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="15">
+        <v>124587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
@@ -1357,8 +1498,8 @@
         <v>0.32124619385942654</v>
       </c>
       <c r="E10" s="8">
-        <f>Sheet1!E9</f>
-        <v>255016</v>
+        <f>Sheet1!E10</f>
+        <v>252224</v>
       </c>
       <c r="F10" s="9">
         <v>29860</v>
@@ -1366,8 +1507,11 @@
       <c r="G10">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="14">
+        <v>123229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2013</v>
       </c>
@@ -1384,8 +1528,8 @@
         <v>0.32022505632410669</v>
       </c>
       <c r="E11" s="8">
-        <f>Sheet1!E10</f>
-        <v>252224</v>
+        <f>Sheet1!E11</f>
+        <v>249893</v>
       </c>
       <c r="F11" s="9">
         <v>29750</v>
@@ -1393,8 +1537,11 @@
       <c r="G11">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="12">
+        <v>122459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
@@ -1411,8 +1558,8 @@
         <v>0.31707543664065402</v>
       </c>
       <c r="E12" s="8">
-        <f>Sheet1!E11</f>
-        <v>249893</v>
+        <f>Sheet1!E12</f>
+        <v>247572</v>
       </c>
       <c r="F12" s="9">
         <v>28510</v>
@@ -1420,8 +1567,11 @@
       <c r="G12">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="12">
+        <v>121084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2011</v>
       </c>
@@ -1438,8 +1588,8 @@
         <v>0.31504637651615536</v>
       </c>
       <c r="E13" s="8">
-        <f>Sheet1!E12</f>
-        <v>247572</v>
+        <f>Sheet1!E13</f>
+        <v>245275</v>
       </c>
       <c r="F13" s="9">
         <v>28070</v>
@@ -1447,8 +1597,11 @@
       <c r="G13">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="12">
+        <v>119927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2010</v>
       </c>
@@ -1465,8 +1618,8 @@
         <v>0.31320363400496598</v>
       </c>
       <c r="E14" s="8">
-        <f>Sheet1!E13</f>
-        <v>245275</v>
+        <f>Sheet1!E14</f>
+        <v>242047</v>
       </c>
       <c r="F14" s="9">
         <v>26380</v>
@@ -1474,8 +1627,11 @@
       <c r="G14">
         <v>27.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="13">
+        <v>117538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2009</v>
       </c>
@@ -1491,9 +1647,9 @@
         <f>Sheet1!D15/Sheet1!E15</f>
         <v>0.30930459272097055</v>
       </c>
-      <c r="E15" s="8" t="e">
-        <f>Sheet1!#REF!</f>
-        <v>#REF!</v>
+      <c r="E15" s="8">
+        <f>Sheet1!E15</f>
+        <v>240032</v>
       </c>
       <c r="F15" s="9">
         <v>26270</v>
@@ -1501,8 +1657,11 @@
       <c r="G15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="12">
+        <v>117181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2008</v>
       </c>
@@ -1519,8 +1678,8 @@
         <v>0.30280302361834172</v>
       </c>
       <c r="E16" s="8">
-        <f>Sheet1!E14</f>
-        <v>242047</v>
+        <f>Sheet1!E16</f>
+        <v>237993</v>
       </c>
       <c r="F16" s="9">
         <v>26610</v>
@@ -1528,8 +1687,11 @@
       <c r="G16">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="12">
+        <v>116783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2007</v>
       </c>
@@ -1546,8 +1708,8 @@
         <v>0.30307231776398358</v>
       </c>
       <c r="E17" s="8">
-        <f>Sheet1!E15</f>
-        <v>240032</v>
+        <f>Sheet1!E17</f>
+        <v>235848</v>
       </c>
       <c r="F17" s="9">
         <v>26410</v>
@@ -1555,8 +1717,11 @@
       <c r="G17">
         <v>26.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="12">
+        <v>116011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2006</v>
       </c>
@@ -1573,8 +1738,8 @@
         <v>0.29709190307201799</v>
       </c>
       <c r="E18" s="8">
-        <f>Sheet1!E16</f>
-        <v>237993</v>
+        <f>Sheet1!E18</f>
+        <v>233039</v>
       </c>
       <c r="F18" s="9">
         <v>26040</v>
@@ -1582,8 +1747,11 @@
       <c r="G18">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="12">
+        <v>114384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2005</v>
       </c>
@@ -1600,8 +1768,8 @@
         <v>0.29753943162868263</v>
       </c>
       <c r="E19" s="8">
-        <f>Sheet1!E17</f>
-        <v>235848</v>
+        <f>Sheet1!E19</f>
+        <v>230272</v>
       </c>
       <c r="F19" s="9">
         <v>24670</v>
@@ -1609,8 +1777,11 @@
       <c r="G19">
         <v>26.200000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="13">
+        <v>113343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2004</v>
       </c>
@@ -1627,8 +1798,8 @@
         <v>0.29484523385369243</v>
       </c>
       <c r="E20" s="8">
-        <f>Sheet1!E18</f>
-        <v>233039</v>
+        <f>Sheet1!E20</f>
+        <v>227343</v>
       </c>
       <c r="F20" s="9">
         <v>23550</v>
@@ -1636,8 +1807,11 @@
       <c r="G20">
         <v>26.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="12">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2003</v>
       </c>
@@ -1654,8 +1828,8 @@
         <v>0.29263697641042047</v>
       </c>
       <c r="E21" s="8">
-        <f>Sheet1!E19</f>
-        <v>230272</v>
+        <f>Sheet1!E21</f>
+        <v>225057</v>
       </c>
       <c r="F21" s="9">
         <v>22970</v>
@@ -1663,8 +1837,11 @@
       <c r="G21">
         <v>26.200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="12">
+        <v>111278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2002</v>
       </c>
@@ -1681,8 +1858,8 @@
         <v>0.29070975083311507</v>
       </c>
       <c r="E22" s="8">
-        <f>Sheet1!E20</f>
-        <v>227343</v>
+        <f>Sheet1!E22</f>
+        <v>221458</v>
       </c>
       <c r="F22" s="9">
         <v>22530</v>
@@ -1690,8 +1867,11 @@
       <c r="G22">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="12">
+        <v>109297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2001</v>
       </c>
@@ -1708,8 +1888,8 @@
         <v>0.28803615860478921</v>
       </c>
       <c r="E23" s="8">
-        <f>Sheet1!E21</f>
-        <v>225057</v>
+        <f>Sheet1!E23</f>
+        <v>219035</v>
       </c>
       <c r="F23" s="9">
         <v>22570</v>
@@ -1717,8 +1897,11 @@
       <c r="G23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="12">
+        <v>108209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2000</v>
       </c>
@@ -1735,14 +1918,17 @@
         <v>0.28597023024315399</v>
       </c>
       <c r="E24" s="8">
-        <f>Sheet1!E22</f>
-        <v>221458</v>
+        <f>Sheet1!E24</f>
+        <v>213774</v>
       </c>
       <c r="F24" s="9">
         <v>22130</v>
       </c>
       <c r="G24">
         <v>25.950000000000003</v>
+      </c>
+      <c r="H24" s="13">
+        <v>104705</v>
       </c>
     </row>
   </sheetData>
